--- a/Data Files/Input Validation/09. contractno/Case3/Auto_ContractNo_Case3_C5.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case3/Auto_ContractNo_Case3_C5.xlsx
@@ -160,7 +160,7 @@
     <t xml:space="preserve">Autsdo_Test-0001at</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-16</t>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -317,7 +317,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -332,6 +332,10 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
@@ -358,7 +362,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="3:3"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -786,8 +790,8 @@
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2"/>
-      <c r="XFC3" s="0"/>
-      <c r="XFD3" s="0"/>
+      <c r="XFC3" s="4"/>
+      <c r="XFD3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2"/>
@@ -997,12 +1001,12 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="5"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1048,11 +1052,11 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="4"/>
+      <c r="D9" s="5"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1099,11 +1103,11 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2"/>
-      <c r="B10" s="4"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="5"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1150,11 +1154,11 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2"/>
-      <c r="B11" s="4"/>
+      <c r="B11" s="5"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="4"/>
+      <c r="D11" s="5"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1203,7 +1207,7 @@
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="4"/>
+      <c r="D12" s="5"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>

--- a/Data Files/Input Validation/09. contractno/Case3/Auto_ContractNo_Case3_C5.xlsx
+++ b/Data Files/Input Validation/09. contractno/Case3/Auto_ContractNo_Case3_C5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2503AA3A-66DE-4042-B12B-8EF2149F0495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACFDA9EF-8FA4-447E-A776-C351AA165DF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -234,7 +234,7 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
